--- a/Test/Lawnmower/T2/Sensors_data_1000003.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000003.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9987033922937818</v>
+        <v>0.9930652671374276</v>
       </c>
       <c r="D2" t="n">
-        <v>7.199151257394597e-05</v>
+        <v>0.0003850369743127327</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06098345024731139</v>
+        <v>0.09529935236229342</v>
       </c>
       <c r="F2" t="n">
         <v>4</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8677786996584752</v>
+        <v>0.9588969361491455</v>
       </c>
       <c r="D3" t="n">
-        <v>0.004832642891770038</v>
+        <v>0.001502302797172079</v>
       </c>
       <c r="E3" t="n">
-        <v>0.343613912124094</v>
+        <v>0.3453938898783429</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9361161903997867</v>
+        <v>0.9666597725053465</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001903056978094554</v>
+        <v>0.0009931836091495129</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4680814891777492</v>
+        <v>0.4458063385178979</v>
       </c>
       <c r="F4" t="n">
         <v>4</v>
@@ -550,18 +550,93 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9228543218143683</v>
+        <v>0.04232837636462405</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002114730612716143</v>
+        <v>0.02625185943090842</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3697073065562037</v>
+        <v>0.5186551900218644</v>
       </c>
       <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>s5</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9631855731967944</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.001556890577988088</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0232149182075283</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G5" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>s6</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9664407064502971</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.001031822904190512</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.4130641506360531</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>s7</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9523299533507344</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.002449065453017853</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.02972634481402459</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
         <v>0</v>
       </c>
     </row>
